--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-hmkt/hzero-hmkt-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-hmkt/hzero-hmkt-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>help_type</t>
+  </si>
+  <si>
+    <t>help_value</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2109,6 +2121,12 @@
     <t>api</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2118,6 +2136,9 @@
     <t>应用市场</t>
   </si>
   <si>
+    <t>Application market</t>
+  </si>
+  <si>
     <t>HMKT</t>
   </si>
   <si>
@@ -2142,6 +2163,9 @@
     <t>市场配置</t>
   </si>
   <si>
+    <t>market distribution</t>
+  </si>
+  <si>
     <t>HMKTC</t>
   </si>
   <si>
@@ -2166,6 +2190,9 @@
     <t>默认权限集</t>
   </si>
   <si>
+    <t>Default permission set</t>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2184,6 +2211,9 @@
     <t>客户端虚拟菜单</t>
   </si>
   <si>
+    <t>Client virtual menu</t>
+  </si>
+  <si>
     <t>/market-home</t>
   </si>
   <si>
@@ -2211,6 +2241,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2220,69 +2253,18 @@
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hzero-admin.client-server-collect.diffServiceLibs</t>
+    <t>hzero-admin.market-config.createOrUpdate</t>
+  </si>
+  <si>
+    <t>124568523237695491</t>
   </si>
   <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hzero-admin.client-server-collect.hzeroVersions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-11</t>
-  </si>
-  <si>
-    <t>hzero-admin.client-server-collect.queryLibDependencyVersion</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-12</t>
-  </si>
-  <si>
-    <t>hzero-admin.client-server-collect.queryLibInfo</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-13</t>
-  </si>
-  <si>
-    <t>hzero-admin.client-server-collect.services</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-14</t>
-  </si>
-  <si>
-    <t>hzero-admin.client-server-collect.servicesList</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-15</t>
-  </si>
-  <si>
-    <t>hzero-admin.market-config.createOrUpdate</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-16</t>
-  </si>
-  <si>
     <t>hzero-admin.market-config.getConfig</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
-  </si>
-  <si>
-    <t>hzero-admin.market-config.updateJoinFLag</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-18</t>
-  </si>
-  <si>
-    <t>hzero-admin.swagger-diff.diff</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-19</t>
-  </si>
-  <si>
-    <t>hzero-admin.swagger-diff.versionList</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2304,7 +2286,7 @@
     <t>#h_parent_role_assign_level</t>
   </si>
   <si>
-    <t>h_parent_role_assign_level_val</t>
+    <t>#h_parent_role_assign_level_val</t>
   </si>
   <si>
     <t>is_enabled</t>
@@ -2334,6 +2316,9 @@
     <t>tpl_role_name:en_US</t>
   </si>
   <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2346,7 +2331,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>abcf</t>
+    <t/>
   </si>
   <si>
     <t>organization</t>
@@ -2364,9 +2349,6 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>abce</t>
-  </si>
-  <si>
     <t>iam_role-10</t>
   </si>
   <si>
@@ -2449,6 +2431,9 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -2483,7 +2468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2800,6 +2785,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3035,7 +3025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3161,6 +3151,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3746,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3853,314 +3844,362 @@
       <c r="Y7" t="s">
         <v>74</v>
       </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>市场客户端插件菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
         <v>91</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AC9" t="s">
         <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <f>市场客户端插件菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <f>市场客户端插件菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <f>市场客户端插件菜单!$E$9</f>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="T12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X12" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <f>市场客户端插件菜单!$E$12</f>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="V13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4209,151 +4248,88 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>120</v>
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <f>市场客户端插件菜单!$E$11</f>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F9">
         <f>市场客户端插件菜单!$E$11</f>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F10">
         <f>市场客户端插件菜单!$E$11</f>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G19" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4363,7 +4339,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4402,10 +4378,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4420,235 +4396,271 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" t="s" s="74">
+        <v>144</v>
+      </c>
+      <c r="N7" t="s" s="75">
+        <v>145</v>
+      </c>
+      <c r="O7" t="s" s="76">
+        <v>146</v>
+      </c>
+      <c r="P7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" t="s">
         <v>149</v>
       </c>
-      <c r="M7" t="s" s="74">
+      <c r="S7" t="s">
         <v>150</v>
       </c>
-      <c r="N7" t="s" s="75">
+      <c r="T7" t="s">
         <v>151</v>
-      </c>
-      <c r="O7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" t="s">
-        <v>156</v>
-      </c>
-      <c r="T7" t="s">
-        <v>157</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>158</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>153</v>
       </c>
       <c r="X7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y7" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
         <v>162</v>
       </c>
-      <c r="F8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" t="s">
-        <v>167</v>
-      </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="V8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10">
         <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="V10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Y10" t="s">
-        <v>178</v>
+        <v>172</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -4659,28 +4671,37 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s" s="78">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s" s="79">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s" s="80">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s" s="81">
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" t="s" s="82">
         <v>179</v>
       </c>
-      <c r="D12" t="s" s="77">
-        <v>180</v>
-      </c>
-      <c r="E12" t="s" s="78">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s" s="79">
-        <v>181</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>182</v>
-      </c>
-      <c r="H12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>185</v>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4711,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4729,75 +4750,87 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s" s="83">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s" s="84">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="85">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s" s="86">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" t="s">
         <v>186</v>
       </c>
-      <c r="D7" t="s" s="82">
+      <c r="M7" t="s">
         <v>187</v>
       </c>
-      <c r="E7" t="s" s="83">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s" s="84">
+      <c r="N7" t="s">
         <v>188</v>
       </c>
-      <c r="G7" t="s" s="85">
-        <v>185</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="O7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" t="s">
-        <v>193</v>
-      </c>
-      <c r="N7" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" t="s">
-        <v>195</v>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -4808,33 +4841,39 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s" s="87">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s" s="88">
+        <v>198</v>
+      </c>
+      <c r="F10" t="s" s="89">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s" s="90">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s" s="91">
         <v>201</v>
       </c>
-      <c r="D10" t="s" s="86">
+      <c r="I10" t="s">
         <v>202</v>
       </c>
-      <c r="E10" t="s" s="87">
-        <v>203</v>
-      </c>
-      <c r="F10" t="s" s="88">
-        <v>204</v>
-      </c>
-      <c r="G10" t="s" s="89">
-        <v>205</v>
-      </c>
-      <c r="H10" t="s" s="90">
-        <v>206</v>
-      </c>
-      <c r="I10" t="s">
-        <v>207</v>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G11">
         <f>市场客户端插件菜单!$E$8</f>
@@ -4843,15 +4882,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G12">
         <f>市场客户端插件菜单!$E$9</f>
@@ -4860,15 +4905,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G13">
         <f>市场客户端插件菜单!$E$10</f>
@@ -4877,15 +4928,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G14">
         <f>市场客户端插件菜单!$E$11</f>
@@ -4894,15 +4951,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <f>市场客户端插件菜单!$E$12</f>
@@ -4911,15 +4974,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G16">
         <f>市场客户端插件菜单!$E$13</f>
@@ -4928,7 +4997,13 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-hmkt/hzero-hmkt-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-hmkt/hzero-hmkt-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="189">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2202,33 +2202,6 @@
     <t>disabled</t>
   </si>
   <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>hzero.site.config.hmkt.client-market</t>
-  </si>
-  <si>
-    <t>客户端虚拟菜单</t>
-  </si>
-  <si>
-    <t>Client virtual menu</t>
-  </si>
-  <si>
-    <t>/market-home</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.hmkt|hzero.site.config.hmkt.client-market</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>hzero.site.config.hmkt.client-market.ps.default</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.hmkt|hzero.site.config.hmkt.client-market|hzero.site.config.hmkt.client-market.ps.default</t>
-  </si>
-  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2244,27 +2217,6 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>iam_menu_permission-8</t>
-  </si>
-  <si>
-    <t>hzero-admin.client-server-collect.allExtraData</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-9</t>
-  </si>
-  <si>
-    <t>hzero-admin.market-config.createOrUpdate</t>
-  </si>
-  <si>
-    <t>124568523237695491</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-10</t>
-  </si>
-  <si>
-    <t>hzero-admin.market-config.getConfig</t>
-  </si>
-  <si>
     <t>角色</t>
   </si>
   <si>
@@ -2331,10 +2283,10 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>134354801085124640</t>
   </si>
   <si>
     <t>iam_role-9</t>
@@ -3737,7 +3689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3935,8 +3887,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>市场客户端插件菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -3994,8 +3947,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>市场客户端插件菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>107</v>
@@ -4050,8 +4004,9 @@
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>市场客户端插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>115</v>
@@ -4087,118 +4042,6 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12">
-        <f>市场客户端插件菜单!$E$9</f>
-      </c>
-      <c r="L12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13">
-        <f>市场客户端插件菜单!$E$12</f>
-      </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" t="s">
-        <v>126</v>
-      </c>
-      <c r="T13" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" t="s">
-        <v>117</v>
-      </c>
-      <c r="V13" t="s">
-        <v>90</v>
-      </c>
-      <c r="X13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4209,7 +4052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4248,88 +4091,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10">
-        <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4378,10 +4161,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4396,58 +4179,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="O7" t="s" s="76">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="Q7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="S7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="T7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="W7" t="s" s="77">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="X7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="Y7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Z7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -4458,19 +4241,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -4485,7 +4265,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -4506,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -4521,27 +4301,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -4553,7 +4330,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -4574,10 +4351,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="V9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -4589,24 +4366,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -4614,11 +4391,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -4639,19 +4417,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="V10" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y10" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -4660,7 +4438,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -4671,31 +4449,31 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s" s="81">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J12" t="s" s="82">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
@@ -4711,7 +4489,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4750,43 +4528,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s" s="86">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="N7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -4797,25 +4575,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -4841,25 +4619,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s" s="87">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s" s="88">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s" s="89">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s" s="90">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H10" t="s" s="91">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
         <v>77</v>
@@ -4870,19 +4648,21 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11">
+        <v>176</v>
+      </c>
+      <c r="G11" t="n">
         <f>市场客户端插件菜单!$E$8</f>
-      </c>
-      <c r="H11">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J11" t="s">
         <v>91</v>
@@ -4893,117 +4673,77 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12">
+        <v>176</v>
+      </c>
+      <c r="G12" t="n">
         <f>市场客户端插件菜单!$E$9</f>
-      </c>
-      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
         <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13">
+        <v>176</v>
+      </c>
+      <c r="G13" t="n">
         <f>市场客户端插件菜单!$E$10</f>
-      </c>
-      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14">
+        <v>176</v>
+      </c>
+      <c r="G14" t="n">
         <f>市场客户端插件菜单!$E$11</f>
-      </c>
-      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I14" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J14" t="s">
         <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15">
-        <f>市场客户端插件菜单!$E$12</f>
-      </c>
-      <c r="H15">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I15" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16">
-        <f>市场客户端插件菜单!$E$13</f>
-      </c>
-      <c r="H16">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
